--- a/Backend_parlour_men_data.xlsx
+++ b/Backend_parlour_men_data.xlsx
@@ -478,84 +478,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Face glow ladies Beauty Parlour</t>
+          <t>UNIQUE PROFESSIONAL UNISEX SALON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coastal Arcade, Surathkal, Mangaluru</t>
+          <t>Shop No F3, F4, 1st Floor, near Srinivas Hospital Adhidhan Land Mark Building, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Monday-Friday: 8:30 AM – 8:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>+91 97403 08545</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://face-glow-ladies-beauty-parlour.business.site/</t>
-        </is>
-      </c>
+          <t>+91 72048 81243</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4752085954908933186</t>
+          <t>https://maps.google.com/?cid=12990322004268924615</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLAMOUR LADIES BEAUTY SALON</t>
+          <t>Sunasa Beauty parlour</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1st Floor, #12, Adhidan Land Mark Building, Mukka, Mangaluru</t>
+          <t>Sunasa beauty parlour, sumudha arcade, near Ganesh temple, Ganeshpura, Katipalla, Kaikamba, Mangaluru</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 7:00 PM</t>
+          <t>Monday-Friday: 9:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+91 81977 20400</t>
+          <t>+91 96639 14122</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17814378601412697077</t>
+          <t>https://maps.google.com/?cid=12225726616441786224</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UNIQUE PROFESSIONAL UNISEX SALON</t>
+          <t>Priya herbal beauty parlour</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shop No F3, F4, 1st Floor, near Srinivas Hospital Adhidhan Land Mark Building, Mukka, Mangaluru</t>
+          <t>door no, Priya nilaya, 6-53/2, krishnapura cross road, Hosabettu, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -566,196 +562,188 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: Open 24 hours</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+91 72048 81243</t>
+          <t>+91 99456 88565</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12990322004268924615</t>
+          <t>https://maps.google.com/?cid=2567820422313129556</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Naturals Unisex Salon Surathkal</t>
+          <t>Brahmi Beauty Parlour</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1st Floor, Vijay Mahal, Main Road, near Ribbons and Balloons, Iddya Village, Surathkal, Mangaluru</t>
+          <t>Katipalla, Mangaluru</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 8:30 PM</t>
+          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>+91 97407 20132</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://salons.naturals.in/naturals-unisex-salon-surathkal-beauty-salons-surathkal-520097/Home?utm_source=locator&amp;utm_medium=googleplaces</t>
-        </is>
-      </c>
+          <t>+91 63647 71558</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7125128025969988551</t>
+          <t>https://maps.google.com/?cid=8939840050446087158</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Mirrored Unisex Salon</t>
+          <t>Dristhi professional beauty parlour</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ground Floor, Abhish Mall, near More Supermarket, Surathkal, Mangaluru</t>
+          <t>Sri said ram, Eshwarnagar, 3-141/33, Kuthethoor, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 8:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>+91 824 350 0276</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>http://themirroredunisexsalon.com/?utm_source=gmb&amp;utm_medium=referral</t>
-        </is>
-      </c>
+          <t>+91 91484 09424</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3970264084842923578</t>
+          <t>https://maps.google.com/?cid=13677291197187357716</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Scissors N'Mirrors Ladies Beauty Saloon</t>
+          <t>Sandhya’s Beauty Care Clinik</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bharani Towers, Junction, Road, below Evolution Gym, Mukka, Shasihithlu, Mangaluru</t>
+          <t>Old Post Office Rd, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>+91 70226 33084</t>
+          <t>+91 96861 60365</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7685114915566722941</t>
+          <t>https://maps.google.com/?cid=7857795109075466448</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sarita's Pampering Palace</t>
+          <t>MAKEOVER BY MEGHNA | MAKE-UP | SKIN | HAIR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1st Floor, Srinivasa Complex Edply, pnvl highway, opp. Govinda Dasa College, Surathkal, Mangaluru</t>
+          <t>Matha Jyothi Building, opp. Srinivas Dental College, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
+          <t>Monday-Friday: 11:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>+91 96869 76211</t>
+          <t>+91 93808 68980</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16367971689633015432</t>
+          <t>https://maps.google.com/?cid=18319764152662393285</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B'Plus Professional Unisex Salon</t>
+          <t>GLAMOUR LADIES BEAUTY SALON</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1st floor, Shanthi sadan, Surathkal, Mangaluru</t>
+          <t>1st Floor, #12, Adhidan Land Mark Building, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:30 PM</t>
+          <t>Monday-Friday: 10:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>+91 77956 63111</t>
+          <t>+91 81977 20400</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2213864925948255164</t>
+          <t>https://maps.google.com/?cid=17814378601412697077</t>
         </is>
       </c>
     </row>
@@ -792,16 +780,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ramya Beauty Parlour</t>
+          <t>Scissors N'Mirrors Ladies Beauty Saloon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cellar Floor, Amrutha Soudha Building, Maarigudi Rd, near Service Bus Stand, Surathkal, Mangaluru</t>
+          <t>Bharani Towers, Junction, Road, below Evolution Gym, Mukka, Shasihithlu, Mangaluru</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -813,93 +801,101 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>+91 99000 16538</t>
+          <t>+91 70226 33084</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6474160817734898651</t>
+          <t>https://maps.google.com/?cid=7685114915566722941</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>New Prakruthi Beauty Parlour</t>
+          <t>Naturals Unisex Salon Surathkal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2nd Floor, XRQ2+PR9 Kudvas grandeur, MRPL Rd, Surathkal, Bajpe, Mangaluru</t>
+          <t>1st Floor, Vijay Mahal, Main Road, near Ribbons and Balloons, Iddya Village, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 6:30 PM</t>
+          <t>Monday-Friday: 9:30 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>+91 93410 27624</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>+91 97407 20132</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://salons.naturals.in/naturals-unisex-salon-surathkal-beauty-salons-surathkal-520097/Home?utm_source=locator&amp;utm_medium=googleplaces</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5995062397070184993</t>
+          <t>https://maps.google.com/?cid=7125128025969988551</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brahmi Beauty Parlour</t>
+          <t>Face glow ladies Beauty Parlour</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Katipalla, Mangaluru</t>
+          <t>Coastal Arcade, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
+          <t>Monday-Friday: 8:30 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>+91 63647 71558</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>+91 97403 08545</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://face-glow-ladies-beauty-parlour.business.site/</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8939840050446087158</t>
+          <t>https://maps.google.com/?cid=4752085954908933186</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ashwini's beauty saloon</t>
+          <t>Sarita's Pampering Palace</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Naithangadi, Krishnapura, Surathkal, Kuthethur Colony</t>
+          <t>1st Floor, Srinivasa Complex Edply, pnvl highway, opp. Govinda Dasa College, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -910,136 +906,140 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 8:00 PM</t>
+          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>+91 79751 36842</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://instagram.com/ashwini_s_beauty_saloon?igshid=Yzg5MTU1MDY=</t>
-        </is>
-      </c>
+          <t>+91 96869 76211</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7786938580125710858</t>
+          <t>https://maps.google.com/?cid=16367971689633015432</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sandhya’s Beauty Care Clinik</t>
+          <t>Ashwini's beauty saloon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Old Post Office Rd, Surathkal, Mangaluru</t>
+          <t>Naithangadi, Krishnapura, Surathkal, Kuthethur Colony</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 9:30 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>+91 96861 60365</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>+91 79751 36842</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://instagram.com/ashwini_s_beauty_saloon?igshid=Yzg5MTU1MDY=</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7857795109075466448</t>
+          <t>https://maps.google.com/?cid=7786938580125710858</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sunasa Beauty parlour</t>
+          <t>Ramya Beauty Parlour</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sunasa beauty parlour, sumudha arcade, near Ganesh temple, Ganeshpura, Katipalla, Kaikamba, Mangaluru</t>
+          <t>Cellar Floor, Amrutha Soudha Building, Maarigudi Rd, near Service Bus Stand, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 7:00 PM</t>
+          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>+91 96639 14122</t>
+          <t>+91 99000 16538</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12225726616441786224</t>
+          <t>https://maps.google.com/?cid=6474160817734898651</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Priya herbal beauty parlour</t>
+          <t>The Mirrored Unisex Salon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>door no, Priya nilaya, 6-53/2, krishnapura cross road, Hosabettu, Surathkal, Mangaluru</t>
+          <t>Ground Floor, Abhish Mall, near More Supermarket, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Monday-Friday: Open 24 hours</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>+91 99456 88565</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>+91 824 350 0276</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>http://themirroredunisexsalon.com/?utm_source=gmb&amp;utm_medium=referral</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2567820422313129556</t>
+          <t>https://maps.google.com/?cid=3970264084842923578</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ruby's Cream Parlour</t>
+          <t>New Prakruthi Beauty Parlour</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Surathkal, Mangaluru</t>
+          <t>2nd Floor, XRQ2+PR9 Kudvas grandeur, MRPL Rd, Surathkal, Bajpe, Mangaluru</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1050,120 +1050,120 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:30 AM – 10:30 PM</t>
+          <t>Monday-Friday: 9:30 AM – 6:30 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>+91 79000 21245</t>
+          <t>+91 93410 27624</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4694383358586285811</t>
+          <t>https://maps.google.com/?cid=5995062397070184993</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dristhi professional beauty parlour</t>
+          <t>B'Plus Professional Unisex Salon</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sri said ram, Eshwarnagar, 3-141/33, Kuthethoor, Surathkal, Mangaluru</t>
+          <t>1st floor, Shanthi sadan, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monday-Friday: 8:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>+91 91484 09424</t>
+          <t>+91 77956 63111</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13677291197187357716</t>
+          <t>https://maps.google.com/?cid=2213864925948255164</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Manasa Beauty Parlour</t>
+          <t>Ruby's Cream Parlour</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>XRG3+RFW, near Wheel Care, Hosabettu, Surathkal, Mangaluru</t>
+          <t>Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 6:00 PM</t>
+          <t>Monday-Friday: 10:30 AM – 10:30 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>+91 96116 96146</t>
+          <t>+91 79000 21245</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2508349195704445127</t>
+          <t>https://maps.google.com/?cid=4694383358586285811</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MAKEOVER BY MEGHNA | MAKE-UP | SKIN | HAIR</t>
+          <t>Manasa Beauty Parlour</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Matha Jyothi Building, opp. Srinivas Dental College, Mukka, Mangaluru</t>
+          <t>XRG3+RFW, near Wheel Care, Hosabettu, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Monday-Friday: 11:00 AM – 7:00 PM</t>
+          <t>Monday-Friday: 10:00 AM – 6:00 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>+91 93808 68980</t>
+          <t>+91 96116 96146</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18319764152662393285</t>
+          <t>https://maps.google.com/?cid=2508349195704445127</t>
         </is>
       </c>
     </row>
